--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/054e98195e86edd1/Documents/Oracle_TESTDB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_AD4D066CA252ABDACC1048A2D151D5A272EEDF5F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F0BB8B8B-6C63-4D7A-99B9-DFCDCD6FEEAC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C360C4F0-5B86-4BC5-B8A2-980B3CC89BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19470" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -33,18 +29,12 @@
     <t>宇野葵依</t>
   </si>
   <si>
-    <t>島根県松江市春日町4-7-15</t>
-  </si>
-  <si>
     <t>0852301572</t>
   </si>
   <si>
     <t>202288880000000002</t>
   </si>
   <si>
-    <t>愛媛県西条市丹原町石経4-16-7丹原町石経コーポ209</t>
-  </si>
-  <si>
     <t>0895736177</t>
   </si>
   <si>
@@ -54,9 +44,6 @@
     <t>寺内智恵</t>
   </si>
   <si>
-    <t>徳島県海部郡海陽町芝3-9-3</t>
-  </si>
-  <si>
     <t>0885304097</t>
   </si>
   <si>
@@ -81,9 +68,6 @@
     <t>itashiro@akraipr.asm.dpk</t>
   </si>
   <si>
-    <t>1946/12/10</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -97,9 +81,6 @@
   </si>
   <si>
     <t>yura163@jermf.yc</t>
-  </si>
-  <si>
-    <t>1940/02/24</t>
   </si>
   <si>
     <t>統合SO番号</t>
@@ -174,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1986/02/XX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>愛知県名古屋市港区錦町2-16-10期待値と違う</t>
     <rPh sb="18" eb="21">
       <t>キタイチ</t>
@@ -236,16 +213,10 @@
     <t>光ネクスト　ファミリー</t>
   </si>
   <si>
-    <t>102Q</t>
-  </si>
-  <si>
     <t>光ネクスト　マンション</t>
   </si>
   <si>
     <t>102R</t>
-  </si>
-  <si>
-    <t>光ネクスト　マンション（ひかり配線方式）</t>
   </si>
   <si>
     <t>102S</t>
@@ -327,6 +298,47 @@
   </si>
   <si>
     <t>ビル</t>
+  </si>
+  <si>
+    <t>102Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB ハンカク 123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本徳島県海部郡海陽町芝3-9-3</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本愛媛県西条市丹原町石経4-16-7丹原町石経コーポ209</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本島根県松江市春日町4-7-15</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19461210</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19400224</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>198602XX</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -662,8 +674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -674,125 +686,125 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -803,78 +815,75 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C360C4F0-5B86-4BC5-B8A2-980B3CC89BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1CF091B9-F137-4975-A056-BE9F822FEE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19470" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4190" yWindow="4240" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AB ﾊﾝｶｸ 123</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,6 +335,347 @@
   <si>
     <t>198602XX</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB型</t>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A型</t>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>202288880000000005</t>
+  </si>
+  <si>
+    <t>202288880000000006</t>
+  </si>
+  <si>
+    <t>202288880000000007</t>
+  </si>
+  <si>
+    <t>202288880000000008</t>
+  </si>
+  <si>
+    <t>202288880000000009</t>
+  </si>
+  <si>
+    <t>202288880000000010</t>
+  </si>
+  <si>
+    <t>202288880000000011</t>
+  </si>
+  <si>
+    <t>202288880000000012</t>
+  </si>
+  <si>
+    <t>202288880000000013</t>
+  </si>
+  <si>
+    <t>202288880000000014</t>
+  </si>
+  <si>
+    <t>202288880000000015</t>
+  </si>
+  <si>
+    <t>202288880000000016</t>
+  </si>
+  <si>
+    <t>202288880000000017</t>
+  </si>
+  <si>
+    <t>202288880000000018</t>
+  </si>
+  <si>
+    <t>202288880000000019</t>
+  </si>
+  <si>
+    <t>石村啓子</t>
+  </si>
+  <si>
+    <t>日本大阪府吹田市佐竹台4-13佐竹台の杜214</t>
+  </si>
+  <si>
+    <t>0670707704</t>
+  </si>
+  <si>
+    <t>rui_ogata@dyfra</t>
+  </si>
+  <si>
+    <t>20061111</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>A型</t>
+  </si>
+  <si>
+    <t>AB ﾊﾝｶｸ 123</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>滝沢保</t>
+  </si>
+  <si>
+    <t>日本埼玉県八潮市八條1-17八條ロイヤルパレス300</t>
+  </si>
+  <si>
+    <t>0482930925</t>
+  </si>
+  <si>
+    <t>wakanakon@pcvlp</t>
+  </si>
+  <si>
+    <t>19521119</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>O型</t>
+  </si>
+  <si>
+    <t>塚原雛</t>
+  </si>
+  <si>
+    <t>日本京都府京都市中京区壬生坊城町4-7グランド壬生坊城町219</t>
+  </si>
+  <si>
+    <t>0776426748</t>
+  </si>
+  <si>
+    <t>sena64329@keyae</t>
+  </si>
+  <si>
+    <t>20021125</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>B型</t>
+  </si>
+  <si>
+    <t>三原裕史</t>
+  </si>
+  <si>
+    <t>日本鹿児島県大島郡与論町立長3-18-15立長ステーション105</t>
+  </si>
+  <si>
+    <t>0995426600</t>
+  </si>
+  <si>
+    <t>Midori_Yoshinag</t>
+  </si>
+  <si>
+    <t>19710116</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>片山利之</t>
+  </si>
+  <si>
+    <t>日本滋賀県高島市朽木古川1-2-17</t>
+  </si>
+  <si>
+    <t>0740850767</t>
+  </si>
+  <si>
+    <t>sadao66184@gqhl</t>
+  </si>
+  <si>
+    <t>19850311</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>栗山藍子</t>
+  </si>
+  <si>
+    <t>日本宮城県気仙沼市上東側1-20</t>
+  </si>
+  <si>
+    <t>0221047673</t>
+  </si>
+  <si>
+    <t>miku63276@xisxn</t>
+  </si>
+  <si>
+    <t>19870727</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>青野郁貴</t>
+  </si>
+  <si>
+    <t>日本東京都港区麻布十番2-2麻布十番シティ301</t>
+  </si>
+  <si>
+    <t>0309619615</t>
+  </si>
+  <si>
+    <t>miyuki98867@lcd</t>
+  </si>
+  <si>
+    <t>19560826</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>堀口悠聖</t>
+  </si>
+  <si>
+    <t>日本宮城県仙台市泉区松陵4-16-9</t>
+  </si>
+  <si>
+    <t>0223342452</t>
+  </si>
+  <si>
+    <t>bay=wp=nxsmdeki</t>
+  </si>
+  <si>
+    <t>19310704</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>小野田帆花</t>
+  </si>
+  <si>
+    <t>日本山梨県北杜市長坂町中丸2-4-15</t>
+  </si>
+  <si>
+    <t>0553079677</t>
+  </si>
+  <si>
+    <t>aooi@kzrbbezij.</t>
+  </si>
+  <si>
+    <t>19721123</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>鬼頭琴美</t>
+  </si>
+  <si>
+    <t>日本長崎県長崎市築町3-17</t>
+  </si>
+  <si>
+    <t>0954676175</t>
+  </si>
+  <si>
+    <t>akanekikuchi@ok</t>
+  </si>
+  <si>
+    <t>20060602</t>
+  </si>
+  <si>
+    <t>高村知治</t>
+  </si>
+  <si>
+    <t>日本福井県坂井市丸岡町長崎4-1-13丸岡町長崎庵101</t>
+  </si>
+  <si>
+    <t>0779851075</t>
+  </si>
+  <si>
+    <t>uezaki@pdzeyvju</t>
+  </si>
+  <si>
+    <t>19250317</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>AB型</t>
+  </si>
+  <si>
+    <t>福岡亜実</t>
+  </si>
+  <si>
+    <t>日本兵庫県加古川市上荘町小野3-18-15上荘町小野ダイヤモンド117</t>
+  </si>
+  <si>
+    <t>0785364479</t>
+  </si>
+  <si>
+    <t>kousaku_nakazaw</t>
+  </si>
+  <si>
+    <t>19231225</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>中村雪絵</t>
+  </si>
+  <si>
+    <t>日本茨城県石岡市小山田2-9-7</t>
+  </si>
+  <si>
+    <t>0294630167</t>
+  </si>
+  <si>
+    <t>akina74601@fkao</t>
+  </si>
+  <si>
+    <t>19230729</t>
+  </si>
+  <si>
+    <t>小沢春夫</t>
+  </si>
+  <si>
+    <t>日本福島県いわき市久之浜町田之網2-12-9</t>
+  </si>
+  <si>
+    <t>024440695</t>
+  </si>
+  <si>
+    <t>hayato374@hdhkj</t>
+  </si>
+  <si>
+    <t>19510811</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>小笠原栄三郎</t>
+  </si>
+  <si>
+    <t>日本徳島県三好市西祖谷山村坂瀬2-9-11プラチナ西祖谷山村坂瀬318</t>
+  </si>
+  <si>
+    <t>0884519757</t>
+  </si>
+  <si>
+    <t>ayako927@fudjf.</t>
+  </si>
+  <si>
+    <t>19510411</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -672,19 +1009,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -710,22 +1047,22 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -748,25 +1085,25 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -783,31 +1120,31 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -824,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -833,19 +1170,19 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
@@ -871,21 +1208,717 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1CF091B9-F137-4975-A056-BE9F822FEE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{662C8D4D-4AB2-4406-8EB8-D691DB687633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4190" yWindow="4240" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4870" yWindow="4920" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="707">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -676,6 +676,1657 @@
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>社外申請有無</t>
+    <rPh sb="0" eb="2">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ総工事有無</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体化設計対象</t>
+    <rPh sb="0" eb="3">
+      <t>イッタイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体化申請有無</t>
+    <rPh sb="0" eb="3">
+      <t>イッタイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>202288880000000020</t>
+  </si>
+  <si>
+    <t>202288880000000021</t>
+  </si>
+  <si>
+    <t>202288880000000022</t>
+  </si>
+  <si>
+    <t>202288880000000023</t>
+  </si>
+  <si>
+    <t>202288880000000024</t>
+  </si>
+  <si>
+    <t>202288880000000025</t>
+  </si>
+  <si>
+    <t>202288880000000026</t>
+  </si>
+  <si>
+    <t>202288880000000027</t>
+  </si>
+  <si>
+    <t>202288880000000028</t>
+  </si>
+  <si>
+    <t>202288880000000029</t>
+  </si>
+  <si>
+    <t>202288880000000030</t>
+  </si>
+  <si>
+    <t>202288880000000031</t>
+  </si>
+  <si>
+    <t>202288880000000032</t>
+  </si>
+  <si>
+    <t>202288880000000033</t>
+  </si>
+  <si>
+    <t>202288880000000034</t>
+  </si>
+  <si>
+    <t>202288880000000035</t>
+  </si>
+  <si>
+    <t>202288880000000036</t>
+  </si>
+  <si>
+    <t>202288880000000037</t>
+  </si>
+  <si>
+    <t>202288880000000038</t>
+  </si>
+  <si>
+    <t>202288880000000039</t>
+  </si>
+  <si>
+    <t>202288880000000040</t>
+  </si>
+  <si>
+    <t>202288880000000041</t>
+  </si>
+  <si>
+    <t>202288880000000042</t>
+  </si>
+  <si>
+    <t>202288880000000043</t>
+  </si>
+  <si>
+    <t>202288880000000044</t>
+  </si>
+  <si>
+    <t>202288880000000045</t>
+  </si>
+  <si>
+    <t>202288880000000046</t>
+  </si>
+  <si>
+    <t>202288880000000047</t>
+  </si>
+  <si>
+    <t>202288880000000048</t>
+  </si>
+  <si>
+    <t>202288880000000049</t>
+  </si>
+  <si>
+    <t>202288880000000050</t>
+  </si>
+  <si>
+    <t>202288880000000051</t>
+  </si>
+  <si>
+    <t>202288880000000052</t>
+  </si>
+  <si>
+    <t>202288880000000053</t>
+  </si>
+  <si>
+    <t>202288880000000054</t>
+  </si>
+  <si>
+    <t>202288880000000055</t>
+  </si>
+  <si>
+    <t>202288880000000056</t>
+  </si>
+  <si>
+    <t>202288880000000057</t>
+  </si>
+  <si>
+    <t>202288880000000058</t>
+  </si>
+  <si>
+    <t>202288880000000059</t>
+  </si>
+  <si>
+    <t>202288880000000060</t>
+  </si>
+  <si>
+    <t>202288880000000061</t>
+  </si>
+  <si>
+    <t>202288880000000062</t>
+  </si>
+  <si>
+    <t>202288880000000063</t>
+  </si>
+  <si>
+    <t>202288880000000064</t>
+  </si>
+  <si>
+    <t>202288880000000065</t>
+  </si>
+  <si>
+    <t>202288880000000066</t>
+  </si>
+  <si>
+    <t>202288880000000067</t>
+  </si>
+  <si>
+    <t>202288880000000068</t>
+  </si>
+  <si>
+    <t>202288880000000069</t>
+  </si>
+  <si>
+    <t>202288880000000070</t>
+  </si>
+  <si>
+    <t>202288880000000071</t>
+  </si>
+  <si>
+    <t>202288880000000072</t>
+  </si>
+  <si>
+    <t>202288880000000073</t>
+  </si>
+  <si>
+    <t>202288880000000074</t>
+  </si>
+  <si>
+    <t>202288880000000075</t>
+  </si>
+  <si>
+    <t>202288880000000076</t>
+  </si>
+  <si>
+    <t>202288880000000077</t>
+  </si>
+  <si>
+    <t>202288880000000078</t>
+  </si>
+  <si>
+    <t>202288880000000079</t>
+  </si>
+  <si>
+    <t>202288880000000080</t>
+  </si>
+  <si>
+    <t>202288880000000081</t>
+  </si>
+  <si>
+    <t>202288880000000082</t>
+  </si>
+  <si>
+    <t>202288880000000083</t>
+  </si>
+  <si>
+    <t>202288880000000084</t>
+  </si>
+  <si>
+    <t>202288880000000085</t>
+  </si>
+  <si>
+    <t>202288880000000086</t>
+  </si>
+  <si>
+    <t>202288880000000087</t>
+  </si>
+  <si>
+    <t>202288880000000088</t>
+  </si>
+  <si>
+    <t>202288880000000089</t>
+  </si>
+  <si>
+    <t>202288880000000090</t>
+  </si>
+  <si>
+    <t>202288880000000091</t>
+  </si>
+  <si>
+    <t>202288880000000092</t>
+  </si>
+  <si>
+    <t>202288880000000093</t>
+  </si>
+  <si>
+    <t>202288880000000094</t>
+  </si>
+  <si>
+    <t>202288880000000095</t>
+  </si>
+  <si>
+    <t>202288880000000096</t>
+  </si>
+  <si>
+    <t>202288880000000097</t>
+  </si>
+  <si>
+    <t>202288880000000098</t>
+  </si>
+  <si>
+    <t>202288880000000099</t>
+  </si>
+  <si>
+    <t>202288880000000100</t>
+  </si>
+  <si>
+    <t>古河沙織</t>
+  </si>
+  <si>
+    <t>日本群馬県吾妻郡嬬恋村袋倉1-1-16袋倉タウン301</t>
+  </si>
+  <si>
+    <t>0277764999</t>
+  </si>
+  <si>
+    <t>shinichirou6061</t>
+  </si>
+  <si>
+    <t>19610415</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>澤田伊織</t>
+  </si>
+  <si>
+    <t>日本長野県飯田市今宮町3-2-18</t>
+  </si>
+  <si>
+    <t>0261189143</t>
+  </si>
+  <si>
+    <t>mio606@ysvdxvwu</t>
+  </si>
+  <si>
+    <t>19420629</t>
+  </si>
+  <si>
+    <t>土橋楓理</t>
+  </si>
+  <si>
+    <t>日本富山県高岡市福岡町沢川4-11-12</t>
+  </si>
+  <si>
+    <t>0761136413</t>
+  </si>
+  <si>
+    <t>giichi2315@powm</t>
+  </si>
+  <si>
+    <t>19870411</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>大倉千咲</t>
+  </si>
+  <si>
+    <t>日本群馬県邑楽郡明和町下江黒4-13</t>
+  </si>
+  <si>
+    <t>0284956116</t>
+  </si>
+  <si>
+    <t>hikaru1367@ujfk</t>
+  </si>
+  <si>
+    <t>20000201</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>本橋一久</t>
+  </si>
+  <si>
+    <t>日本滋賀県彦根市広野町2-8-15広野町プラザ103</t>
+  </si>
+  <si>
+    <t>0749921486</t>
+  </si>
+  <si>
+    <t>kikuo9858@bnkdt</t>
+  </si>
+  <si>
+    <t>19450601</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>影山貴史</t>
+  </si>
+  <si>
+    <t>日本岩手県奥州市衣川夏梨2-13-9</t>
+  </si>
+  <si>
+    <t>0192773022</t>
+  </si>
+  <si>
+    <t>chisaki_kishi@f</t>
+  </si>
+  <si>
+    <t>19591210</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>千葉小冬音</t>
+  </si>
+  <si>
+    <t>日本佐賀県唐津市和多田百人町4-20-3和多田百人町メゾン401</t>
+  </si>
+  <si>
+    <t>0955092738</t>
+  </si>
+  <si>
+    <t>Michiharu_Matsu</t>
+  </si>
+  <si>
+    <t>19691125</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>塚越聡子</t>
+  </si>
+  <si>
+    <t>日本神奈川県横浜市西区南軽井沢2-15-5</t>
+  </si>
+  <si>
+    <t>0467928271</t>
+  </si>
+  <si>
+    <t>shouji469@vczcx</t>
+  </si>
+  <si>
+    <t>20070220</t>
+  </si>
+  <si>
+    <t>黒澤紬</t>
+  </si>
+  <si>
+    <t>日本愛知県豊明市二村台4-12-12</t>
+  </si>
+  <si>
+    <t>058657585</t>
+  </si>
+  <si>
+    <t>cdqmbhchisato21</t>
+  </si>
+  <si>
+    <t>20170819</t>
+  </si>
+  <si>
+    <t>大熊音羽</t>
+  </si>
+  <si>
+    <t>日本群馬県吾妻郡長野原町川原湯3-18-7</t>
+  </si>
+  <si>
+    <t>0278323321</t>
+  </si>
+  <si>
+    <t>konatsu34317@br</t>
+  </si>
+  <si>
+    <t>19540202</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>黒沢静雄</t>
+  </si>
+  <si>
+    <t>日本北海道旭川市豊岡７条2-9-2</t>
+  </si>
+  <si>
+    <t>0153660429</t>
+  </si>
+  <si>
+    <t>keiichi_asanuma</t>
+  </si>
+  <si>
+    <t>19730614</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>我妻晃年</t>
+  </si>
+  <si>
+    <t>日本徳島県阿南市那賀川町大京原2-15-16那賀川町大京原メゾン114</t>
+  </si>
+  <si>
+    <t>0883974721</t>
+  </si>
+  <si>
+    <t>himari2714@otke</t>
+  </si>
+  <si>
+    <t>20061105</t>
+  </si>
+  <si>
+    <t>中野祐子</t>
+  </si>
+  <si>
+    <t>日本山梨県北杜市長坂町富岡1-13-7長坂町富岡ステージ311</t>
+  </si>
+  <si>
+    <t>0559628000</t>
+  </si>
+  <si>
+    <t>akuru4052@vsyi.</t>
+  </si>
+  <si>
+    <t>20150910</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>仲田裕子</t>
+  </si>
+  <si>
+    <t>日本山梨県都留市中央1-13-2中央フォレスト419</t>
+  </si>
+  <si>
+    <t>0558476446</t>
+  </si>
+  <si>
+    <t>ahattori@ktok.i</t>
+  </si>
+  <si>
+    <t>19471006</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>笠井竜一</t>
+  </si>
+  <si>
+    <t>日本徳島県阿波市阿波町王地南1-12-5阿波町王地南ゴールデン115</t>
+  </si>
+  <si>
+    <t>0886868721</t>
+  </si>
+  <si>
+    <t>mldreflaxfrumi0</t>
+  </si>
+  <si>
+    <t>19371009</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>野上愛理</t>
+  </si>
+  <si>
+    <t>日本千葉県成田市吾妻4-13-13</t>
+  </si>
+  <si>
+    <t>0465658737</t>
+  </si>
+  <si>
+    <t>ikawai@tsdmwrhq</t>
+  </si>
+  <si>
+    <t>19251114</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>緒方雅之丞</t>
+  </si>
+  <si>
+    <t>日本宮崎県児湯郡高鍋町上江4-14-4</t>
+  </si>
+  <si>
+    <t>0983117891</t>
+  </si>
+  <si>
+    <t>junki_kasuga@dr</t>
+  </si>
+  <si>
+    <t>20130401</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>本田初江</t>
+  </si>
+  <si>
+    <t>日本新潟県新潟市西蒲区新谷4-20-13新谷タワー213</t>
+  </si>
+  <si>
+    <t>0257997825</t>
+  </si>
+  <si>
+    <t>keizou76728@mbq</t>
+  </si>
+  <si>
+    <t>19270127</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>下川紀男</t>
+  </si>
+  <si>
+    <t>日本奈良県生駒郡平群町緑ケ丘2-7緑ケ丘ステーション311</t>
+  </si>
+  <si>
+    <t>0746877891</t>
+  </si>
+  <si>
+    <t>kokona26143@kxy</t>
+  </si>
+  <si>
+    <t>19650325</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>池本小春</t>
+  </si>
+  <si>
+    <t>日本愛知県瀬戸市銀杏木町3-3-14銀杏木町プレシャス311</t>
+  </si>
+  <si>
+    <t>0527019842</t>
+  </si>
+  <si>
+    <t>asugai@vfpesliw</t>
+  </si>
+  <si>
+    <t>20030217</t>
+  </si>
+  <si>
+    <t>今萩花</t>
+  </si>
+  <si>
+    <t>日本栃木県宇都宮市田野町2-2-2ロイヤル田野町401</t>
+  </si>
+  <si>
+    <t>0280815040</t>
+  </si>
+  <si>
+    <t>mio04849@phxodp</t>
+  </si>
+  <si>
+    <t>19270823</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>冨田暁子</t>
+  </si>
+  <si>
+    <t>日本兵庫県美方郡香美町香住区丹生地1-14-3</t>
+  </si>
+  <si>
+    <t>0795864784</t>
+  </si>
+  <si>
+    <t>Masami_Kita@wxb</t>
+  </si>
+  <si>
+    <t>19961214</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>佐久間政弘</t>
+  </si>
+  <si>
+    <t>日本岐阜県羽島郡笠松町弥生町4-9-10</t>
+  </si>
+  <si>
+    <t>0578928923</t>
+  </si>
+  <si>
+    <t>konoha553@obwbc</t>
+  </si>
+  <si>
+    <t>20160521</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>香川玲</t>
+  </si>
+  <si>
+    <t>日本大分県宇佐市安心院町若林1-11-10タウン安心院町若林213</t>
+  </si>
+  <si>
+    <t>0979683491</t>
+  </si>
+  <si>
+    <t>jun_murata@amtk</t>
+  </si>
+  <si>
+    <t>19741011</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>赤坂哲男</t>
+  </si>
+  <si>
+    <t>日本京都府京都市東山区福稲川原町3-2-4</t>
+  </si>
+  <si>
+    <t>077139929</t>
+  </si>
+  <si>
+    <t>otamba@unyns.ob</t>
+  </si>
+  <si>
+    <t>19341226</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>大石璃桜</t>
+  </si>
+  <si>
+    <t>日本島根県益田市大谷町3-11-20ヴィレッジ大谷町409</t>
+  </si>
+  <si>
+    <t>0855765182</t>
+  </si>
+  <si>
+    <t>hisao127@puzkbc</t>
+  </si>
+  <si>
+    <t>19610530</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>高倉慶治</t>
+  </si>
+  <si>
+    <t>日本高知県高知市山ノ端町4-11-15</t>
+  </si>
+  <si>
+    <t>0880169059</t>
+  </si>
+  <si>
+    <t>saki_mihashi@yc</t>
+  </si>
+  <si>
+    <t>19460213</t>
+  </si>
+  <si>
+    <t>田川善吉</t>
+  </si>
+  <si>
+    <t>日本青森県八戸市南白山台3-13</t>
+  </si>
+  <si>
+    <t>017221913</t>
+  </si>
+  <si>
+    <t>masamitsu24166@</t>
+  </si>
+  <si>
+    <t>19260305</t>
+  </si>
+  <si>
+    <t>鮫島暖人</t>
+  </si>
+  <si>
+    <t>日本奈良県北葛城郡広陵町馬見南4-6-9</t>
+  </si>
+  <si>
+    <t>0744628105</t>
+  </si>
+  <si>
+    <t>itamaki@ngcg.xl</t>
+  </si>
+  <si>
+    <t>19520409</t>
+  </si>
+  <si>
+    <t>橋本孝夫</t>
+  </si>
+  <si>
+    <t>日本長野県諏訪郡下諏訪町上馬場3-9-15</t>
+  </si>
+  <si>
+    <t>0265505501</t>
+  </si>
+  <si>
+    <t>phpgt-tiqscltyy</t>
+  </si>
+  <si>
+    <t>19741203</t>
+  </si>
+  <si>
+    <t>岡山広史</t>
+  </si>
+  <si>
+    <t>日本山形県南陽市西落合4-4-17</t>
+  </si>
+  <si>
+    <t>0235550664</t>
+  </si>
+  <si>
+    <t>reika_sugai@zlv</t>
+  </si>
+  <si>
+    <t>20110622</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>日比野節男</t>
+  </si>
+  <si>
+    <t>日本福島県二本松市沼ケ作4-9-2</t>
+  </si>
+  <si>
+    <t>0247210992</t>
+  </si>
+  <si>
+    <t>momoka58210@vkn</t>
+  </si>
+  <si>
+    <t>19550929</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>南田賢次</t>
+  </si>
+  <si>
+    <t>日本兵庫県豊岡市日高町栃本2-6-19</t>
+  </si>
+  <si>
+    <t>0790743526</t>
+  </si>
+  <si>
+    <t>miki969@vnpjt.t</t>
+  </si>
+  <si>
+    <t>19650630</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>中原遥華</t>
+  </si>
+  <si>
+    <t>日本岩手県花巻市石鳥谷町新堀2-16-4</t>
+  </si>
+  <si>
+    <t>0197576875</t>
+  </si>
+  <si>
+    <t>takumi310@prorj</t>
+  </si>
+  <si>
+    <t>19670810</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>横田愛菜</t>
+  </si>
+  <si>
+    <t>日本徳島県阿南市那賀川町三栗3-8-10</t>
+  </si>
+  <si>
+    <t>0885601168</t>
+  </si>
+  <si>
+    <t>kotomiide@wgcwn</t>
+  </si>
+  <si>
+    <t>19710401</t>
+  </si>
+  <si>
+    <t>相川裕紀</t>
+  </si>
+  <si>
+    <t>日本埼玉県鴻巣市笠原4-20-9</t>
+  </si>
+  <si>
+    <t>0485913594</t>
+  </si>
+  <si>
+    <t>akiohata@bntv.z</t>
+  </si>
+  <si>
+    <t>19880611</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>永井洋子</t>
+  </si>
+  <si>
+    <t>日本鹿児島県鹿児島市光山4-9-10</t>
+  </si>
+  <si>
+    <t>0993582051</t>
+  </si>
+  <si>
+    <t>Tamio_Sudou@xmd</t>
+  </si>
+  <si>
+    <t>19580714</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>長浜健司</t>
+  </si>
+  <si>
+    <t>日本長野県塩尻市みどり湖4-7-7</t>
+  </si>
+  <si>
+    <t>0266710479</t>
+  </si>
+  <si>
+    <t>kiyoko_narumi@q</t>
+  </si>
+  <si>
+    <t>19740730</t>
+  </si>
+  <si>
+    <t>栗田広史</t>
+  </si>
+  <si>
+    <t>日本鳥取県鳥取市宮長3-16-10</t>
+  </si>
+  <si>
+    <t>0859084253</t>
+  </si>
+  <si>
+    <t>osamu6267@lvrcl</t>
+  </si>
+  <si>
+    <t>20100125</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>出口駿弥</t>
+  </si>
+  <si>
+    <t>日本福井県福井市浜北山町3-8</t>
+  </si>
+  <si>
+    <t>0778961254</t>
+  </si>
+  <si>
+    <t>ikitada@oeabsfz</t>
+  </si>
+  <si>
+    <t>20011112</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>森本澄子</t>
+  </si>
+  <si>
+    <t>日本岩手県八幡平市田沢4-9コート田沢310</t>
+  </si>
+  <si>
+    <t>0195407550</t>
+  </si>
+  <si>
+    <t>yasufumi3730@fx</t>
+  </si>
+  <si>
+    <t>19540605</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>住田萌菜</t>
+  </si>
+  <si>
+    <t>日本山口県下関市笹山町3-11</t>
+  </si>
+  <si>
+    <t>083642456</t>
+  </si>
+  <si>
+    <t>Eriko_Tashiro@b</t>
+  </si>
+  <si>
+    <t>19870307</t>
+  </si>
+  <si>
+    <t>粕谷実桜</t>
+  </si>
+  <si>
+    <t>日本栃木県さくら市上野4-4-19上野ヒル118</t>
+  </si>
+  <si>
+    <t>028878438</t>
+  </si>
+  <si>
+    <t>genta_hashiguch</t>
+  </si>
+  <si>
+    <t>20190818</t>
+  </si>
+  <si>
+    <t>松岡吉男</t>
+  </si>
+  <si>
+    <t>日本静岡県沼津市西浦立保4-19-7</t>
+  </si>
+  <si>
+    <t>0558833544</t>
+  </si>
+  <si>
+    <t>omochida@irtzex</t>
+  </si>
+  <si>
+    <t>19320412</t>
+  </si>
+  <si>
+    <t>神谷白亜</t>
+  </si>
+  <si>
+    <t>日本山口県岩国市寺山3-2</t>
+  </si>
+  <si>
+    <t>0830192608</t>
+  </si>
+  <si>
+    <t>toui423@afklzpv</t>
+  </si>
+  <si>
+    <t>20030305</t>
+  </si>
+  <si>
+    <t>吉野嘉男</t>
+  </si>
+  <si>
+    <t>日本島根県松江市美保関町片江1-1</t>
+  </si>
+  <si>
+    <t>0853442275</t>
+  </si>
+  <si>
+    <t>kazuto49639@bbm</t>
+  </si>
+  <si>
+    <t>19811103</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>柳沢昌男</t>
+  </si>
+  <si>
+    <t>日本山口県岩国市錦町府谷3-14-14錦町府谷キャッスル103</t>
+  </si>
+  <si>
+    <t>0831494134</t>
+  </si>
+  <si>
+    <t>sadaokajiwara@w</t>
+  </si>
+  <si>
+    <t>19250405</t>
+  </si>
+  <si>
+    <t>浜勇吉</t>
+  </si>
+  <si>
+    <t>日本徳島県海部郡海陽町浅川3-10</t>
+  </si>
+  <si>
+    <t>0886546535</t>
+  </si>
+  <si>
+    <t>ayumi154@aqdoqk</t>
+  </si>
+  <si>
+    <t>19940210</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>工藤由真</t>
+  </si>
+  <si>
+    <t>日本和歌山県伊都郡かつらぎ町花園梁瀬2-20-3</t>
+  </si>
+  <si>
+    <t>0738743135</t>
+  </si>
+  <si>
+    <t>yuuei_kon@xdapi</t>
+  </si>
+  <si>
+    <t>19931216</t>
+  </si>
+  <si>
+    <t>本多志郎</t>
+  </si>
+  <si>
+    <t>日本兵庫県西宮市津門仁辺町3-12-1</t>
+  </si>
+  <si>
+    <t>0787740868</t>
+  </si>
+  <si>
+    <t>motoyukinakamot</t>
+  </si>
+  <si>
+    <t>19370207</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>飯島栞奈</t>
+  </si>
+  <si>
+    <t>日本栃木県佐野市葛生東4-10-16ハイツ葛生東319</t>
+  </si>
+  <si>
+    <t>0281333431</t>
+  </si>
+  <si>
+    <t>yuki2434@inykty</t>
+  </si>
+  <si>
+    <t>19210803</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>吾妻麻世</t>
+  </si>
+  <si>
+    <t>日本愛媛県西条市丹原町長野1-5-6</t>
+  </si>
+  <si>
+    <t>0897505444</t>
+  </si>
+  <si>
+    <t>takashi5276@qni</t>
+  </si>
+  <si>
+    <t>19810211</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>岸士勇斗</t>
+  </si>
+  <si>
+    <t>日本北海道紋別郡湧別町上芭露2-3-8</t>
+  </si>
+  <si>
+    <t>013362376</t>
+  </si>
+  <si>
+    <t>kiyoshi912@bzgg</t>
+  </si>
+  <si>
+    <t>19911130</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>篠田亜実</t>
+  </si>
+  <si>
+    <t>日本長野県松本市開智3-13</t>
+  </si>
+  <si>
+    <t>0265559931</t>
+  </si>
+  <si>
+    <t>kyara_yokoi@ije</t>
+  </si>
+  <si>
+    <t>19870422</t>
+  </si>
+  <si>
+    <t>西島結衣</t>
+  </si>
+  <si>
+    <t>日本京都府京都市中京区西大文字町2-9</t>
+  </si>
+  <si>
+    <t>0771829501</t>
+  </si>
+  <si>
+    <t>kaito_agano@lhd</t>
+  </si>
+  <si>
+    <t>19960909</t>
+  </si>
+  <si>
+    <t>半田京一</t>
+  </si>
+  <si>
+    <t>日本千葉県鴨川市天津1-1-10</t>
+  </si>
+  <si>
+    <t>0452505499</t>
+  </si>
+  <si>
+    <t>bayzndikfvkouse</t>
+  </si>
+  <si>
+    <t>20010608</t>
+  </si>
+  <si>
+    <t>葛西夕菜</t>
+  </si>
+  <si>
+    <t>日本愛媛県今治市玉川町龍岡下2-8-17</t>
+  </si>
+  <si>
+    <t>0894956706</t>
+  </si>
+  <si>
+    <t>yatarou8433@dwr</t>
+  </si>
+  <si>
+    <t>20020512</t>
+  </si>
+  <si>
+    <t>福地沙樹</t>
+  </si>
+  <si>
+    <t>日本宮崎県小林市須木奈佐木1-18-12</t>
+  </si>
+  <si>
+    <t>0983273107</t>
+  </si>
+  <si>
+    <t>mariko40877@xcm</t>
+  </si>
+  <si>
+    <t>19890720</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>船越陽向</t>
+  </si>
+  <si>
+    <t>日本山梨県甲府市酒折3-20-11酒折アパート418</t>
+  </si>
+  <si>
+    <t>0554483893</t>
+  </si>
+  <si>
+    <t>Masakichi_Yazak</t>
+  </si>
+  <si>
+    <t>19210410</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>木内葵</t>
+  </si>
+  <si>
+    <t>日本高知県高岡郡津野町船戸1-16-19</t>
+  </si>
+  <si>
+    <t>0887971835</t>
+  </si>
+  <si>
+    <t>uhirayama@elnkj</t>
+  </si>
+  <si>
+    <t>20090906</t>
+  </si>
+  <si>
+    <t>畑幸男</t>
+  </si>
+  <si>
+    <t>日本静岡県賀茂郡松崎町吉田4-1</t>
+  </si>
+  <si>
+    <t>0539152422</t>
+  </si>
+  <si>
+    <t>itokuda@zoalzw.</t>
+  </si>
+  <si>
+    <t>19910120</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>西脇音々</t>
+  </si>
+  <si>
+    <t>日本佐賀県武雄市朝日町中野4-1朝日町中野シーサイド203</t>
+  </si>
+  <si>
+    <t>0942113196</t>
+  </si>
+  <si>
+    <t>momoka7779@sxxu</t>
+  </si>
+  <si>
+    <t>20190429</t>
+  </si>
+  <si>
+    <t>竹本天翔</t>
+  </si>
+  <si>
+    <t>日本岡山県真庭市日野上4-19-20</t>
+  </si>
+  <si>
+    <t>0863841960</t>
+  </si>
+  <si>
+    <t>masato091@kqyi.</t>
+  </si>
+  <si>
+    <t>19650525</t>
+  </si>
+  <si>
+    <t>亀山明子</t>
+  </si>
+  <si>
+    <t>日本兵庫県たつの市御津町中島3-1-17</t>
+  </si>
+  <si>
+    <t>0791853601</t>
+  </si>
+  <si>
+    <t>go=-a-ichika436</t>
+  </si>
+  <si>
+    <t>19970629</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>早川雅</t>
+  </si>
+  <si>
+    <t>日本群馬県前橋市大渡町2-20-17大渡町キャッスル306</t>
+  </si>
+  <si>
+    <t>0276395785</t>
+  </si>
+  <si>
+    <t>rei72355@gstpmk</t>
+  </si>
+  <si>
+    <t>19460412</t>
+  </si>
+  <si>
+    <t>山中英明</t>
+  </si>
+  <si>
+    <t>日本京都府京都市下京区東大工町3-1</t>
+  </si>
+  <si>
+    <t>0773526787</t>
+  </si>
+  <si>
+    <t>Chouji_Kusano@t</t>
+  </si>
+  <si>
+    <t>19501210</t>
+  </si>
+  <si>
+    <t>北条義孝</t>
+  </si>
+  <si>
+    <t>日本奈良県五條市西吉野町屋那瀬4-11-7西吉野町屋那瀬コート314</t>
+  </si>
+  <si>
+    <t>0746903404</t>
+  </si>
+  <si>
+    <t>yura9958@vvufqj</t>
+  </si>
+  <si>
+    <t>19440101</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>山元平一</t>
+  </si>
+  <si>
+    <t>日本新潟県糸魚川市東谷内1-14-9</t>
+  </si>
+  <si>
+    <t>0250233279</t>
+  </si>
+  <si>
+    <t>veybktiysayeqom</t>
+  </si>
+  <si>
+    <t>19710916</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>新保慶子</t>
+  </si>
+  <si>
+    <t>日本山梨県都留市小野4-10小野の杜401</t>
+  </si>
+  <si>
+    <t>0553171888</t>
+  </si>
+  <si>
+    <t>iichihara@zxyoc</t>
+  </si>
+  <si>
+    <t>19311228</t>
+  </si>
+  <si>
+    <t>倉持日向</t>
+  </si>
+  <si>
+    <t>日本奈良県吉野郡十津川村長殿2-10-19</t>
+  </si>
+  <si>
+    <t>0746220863</t>
+  </si>
+  <si>
+    <t>otezuka@swqtiec</t>
+  </si>
+  <si>
+    <t>19300216</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>荒井八重子</t>
+  </si>
+  <si>
+    <t>日本東京都豊島区南池袋4-16-6</t>
+  </si>
+  <si>
+    <t>0382060111</t>
+  </si>
+  <si>
+    <t>keiji344@dpls.a</t>
+  </si>
+  <si>
+    <t>19210114</t>
+  </si>
+  <si>
+    <t>上田玲</t>
+  </si>
+  <si>
+    <t>日本香川県丸亀市津森町2-17-6津森町シーサイド114</t>
+  </si>
+  <si>
+    <t>0870351316</t>
+  </si>
+  <si>
+    <t>hatrjhpkatsuhik</t>
+  </si>
+  <si>
+    <t>19680827</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>真野結香</t>
+  </si>
+  <si>
+    <t>日本北海道岩見沢市栗沢町南本町1-11-6</t>
+  </si>
+  <si>
+    <t>0136642421</t>
+  </si>
+  <si>
+    <t>eizou530@bfqvuz</t>
+  </si>
+  <si>
+    <t>19480718</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>平野雅俊</t>
+  </si>
+  <si>
+    <t>日本宮崎県日向市伊勢ケ浜4-15</t>
+  </si>
+  <si>
+    <t>0987702346</t>
+  </si>
+  <si>
+    <t>itokuppald=-ota</t>
+  </si>
+  <si>
+    <t>19880711</t>
+  </si>
+  <si>
+    <t>河口陽日</t>
+  </si>
+  <si>
+    <t>日本岐阜県美濃加茂市古井町下古井1-2-12</t>
+  </si>
+  <si>
+    <t>058163545</t>
+  </si>
+  <si>
+    <t>nfyierddrkwcush</t>
+  </si>
+  <si>
+    <t>19440206</t>
+  </si>
+  <si>
+    <t>濱田忠夫</t>
+  </si>
+  <si>
+    <t>日本栃木県宇都宮市栄町1-2-11栄町プラザ116</t>
+  </si>
+  <si>
+    <t>0288029052</t>
+  </si>
+  <si>
+    <t>mayuto_kawase@m</t>
+  </si>
+  <si>
+    <t>19960302</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>古谷明音</t>
+  </si>
+  <si>
+    <t>日本愛媛県今治市大正町1-9-11大正町スイート402</t>
+  </si>
+  <si>
+    <t>0891228032</t>
+  </si>
+  <si>
+    <t>isakaguchi@aqwy</t>
+  </si>
+  <si>
+    <t>19421231</t>
+  </si>
+  <si>
+    <t>川嶋佐太郎</t>
+  </si>
+  <si>
+    <t>日本岩手県奥州市前沢堤田3-19-18</t>
+  </si>
+  <si>
+    <t>0197304791</t>
+  </si>
+  <si>
+    <t>sumire7545@ackz</t>
+  </si>
+  <si>
+    <t>20160817</t>
+  </si>
+  <si>
+    <t>長尾文昭</t>
+  </si>
+  <si>
+    <t>日本長崎県対馬市美津島町小船越2-9-2</t>
+  </si>
+  <si>
+    <t>0920491678</t>
+  </si>
+  <si>
+    <t>ohatanaka@pqvhg</t>
+  </si>
+  <si>
+    <t>19551113</t>
+  </si>
+  <si>
+    <t>水谷英実</t>
+  </si>
+  <si>
+    <t>日本栃木県那須郡那須町豊原乙3-17-1</t>
+  </si>
+  <si>
+    <t>0289377807</t>
+  </si>
+  <si>
+    <t>sayaka_kan@vtwm</t>
+  </si>
+  <si>
+    <t>19210814</t>
+  </si>
+  <si>
+    <t>井田和也</t>
+  </si>
+  <si>
+    <t>日本熊本県宇土市岩古曽町4-12-18岩古曽町スイート302</t>
+  </si>
+  <si>
+    <t>0964351314</t>
+  </si>
+  <si>
+    <t>kanade3680@oacq</t>
+  </si>
+  <si>
+    <t>19670828</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +2660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1021,7 +2672,7 @@
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1">
+    <row r="1" spans="1:17" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,8 +2712,20 @@
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
+      <c r="N1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +2766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
+    <row r="3" spans="1:17" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +2807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+    <row r="4" spans="1:17" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +2845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +2886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1264,7 +2927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
+    <row r="7" spans="1:17" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1305,7 +2968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
+    <row r="8" spans="1:17" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1346,7 +3009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+    <row r="9" spans="1:17" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1387,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+    <row r="10" spans="1:17" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1428,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+    <row r="11" spans="1:17" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1469,7 +3132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+    <row r="12" spans="1:17" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1510,7 +3173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+    <row r="13" spans="1:17" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1551,7 +3214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+    <row r="14" spans="1:17" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1592,7 +3255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
+    <row r="15" spans="1:17" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1633,7 +3296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
+    <row r="16" spans="1:17" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1674,7 +3337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    <row r="17" spans="1:17" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1715,7 +3378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1756,7 +3419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1797,7 +3460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1838,87 +3501,3327 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1"/>
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{662C8D4D-4AB2-4406-8EB8-D691DB687633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5889518A-1BDB-46BA-A495-E09629A753B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4870" yWindow="4920" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="4390" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="708">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -2327,6 +2327,10 @@
   </si>
   <si>
     <t>19670828</t>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2660,10 +2664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2672,7 +2676,7 @@
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1">
+    <row r="1" spans="1:18" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2724,8 +2728,11 @@
       <c r="Q1" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1">
+      <c r="R1" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1">
+    <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1">
+    <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+    <row r="5" spans="1:18" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +2893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1">
+    <row r="6" spans="1:18" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1">
+    <row r="7" spans="1:18" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
+    <row r="8" spans="1:18" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
+    <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1">
+    <row r="10" spans="1:18" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1">
+    <row r="11" spans="1:18" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1">
+    <row r="12" spans="1:18" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1">
+    <row r="13" spans="1:18" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1">
+    <row r="14" spans="1:18" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1">
+    <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -3296,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1">
+    <row r="16" spans="1:18" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>

--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69185954-62B3-410C-8EA9-054F7E58D4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{25C30A39-EEB4-4C0F-99D9-93B769439D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4390" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="709">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -2147,6 +2147,24 @@
       <t>ワメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>品目変更(新設)</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>新設</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2491,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:EW101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2483,7 +2501,7 @@
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:153">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:153">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2582,8 +2600,26 @@
       <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="N2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:153">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2623,8 +2659,26 @@
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="N3" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:153">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,8 +2715,26 @@
       <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="N4" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:153">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2702,8 +2774,26 @@
       <c r="M5" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="N5" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:153">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2743,8 +2833,26 @@
       <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="N6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:153">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2784,8 +2892,26 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="N7" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:153">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2825,8 +2951,26 @@
       <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="N8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:153">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -2866,8 +3010,26 @@
       <c r="M9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="N9" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:153">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -2907,8 +3069,26 @@
       <c r="M10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="N10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:153">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -2948,8 +3128,26 @@
       <c r="M11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="N11" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:153">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -2989,8 +3187,26 @@
       <c r="M12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="N12" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:153">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3030,8 +3246,26 @@
       <c r="M13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="N13" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:153">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3071,8 +3305,26 @@
       <c r="M14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="N14" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:153">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -3112,8 +3364,26 @@
       <c r="M15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="N15" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:153">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -3153,8 +3423,26 @@
       <c r="M16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="N16" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:153">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -3194,8 +3482,26 @@
       <c r="M17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="N17" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:153">
       <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
@@ -3235,8 +3541,26 @@
       <c r="M18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="N18" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:153">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -3276,8 +3600,26 @@
       <c r="M19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="N19" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:153">
       <c r="A20" s="1" t="s">
         <v>163</v>
       </c>
@@ -3317,8 +3659,26 @@
       <c r="M20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="N20" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:153">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -3358,8 +3718,26 @@
       <c r="M21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="N21" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:153">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
@@ -3399,8 +3777,26 @@
       <c r="M22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="N22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:153">
       <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
@@ -3440,8 +3836,26 @@
       <c r="M23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="N23" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:153">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -3481,8 +3895,26 @@
       <c r="M24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="N24" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:153">
       <c r="A25" s="1" t="s">
         <v>197</v>
       </c>
@@ -3522,8 +3954,26 @@
       <c r="M25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="N25" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:153">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -3563,8 +4013,26 @@
       <c r="M26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="N26" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:153">
       <c r="A27" s="1" t="s">
         <v>211</v>
       </c>
@@ -3604,8 +4072,26 @@
       <c r="M27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="N27" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:153">
       <c r="A28" s="1" t="s">
         <v>218</v>
       </c>
@@ -3645,8 +4131,26 @@
       <c r="M28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="N28" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:153">
       <c r="A29" s="1" t="s">
         <v>224</v>
       </c>
@@ -3686,8 +4190,26 @@
       <c r="M29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="N29" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:153">
       <c r="A30" s="1" t="s">
         <v>230</v>
       </c>
@@ -3727,8 +4249,26 @@
       <c r="M30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="N30" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:153">
       <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
@@ -3768,8 +4308,26 @@
       <c r="M31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="N31" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:153">
       <c r="A32" s="1" t="s">
         <v>244</v>
       </c>
@@ -3809,8 +4367,26 @@
       <c r="M32" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="N32" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:153">
       <c r="A33" s="1" t="s">
         <v>250</v>
       </c>
@@ -3850,8 +4426,26 @@
       <c r="M33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="N33" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:153">
       <c r="A34" s="1" t="s">
         <v>256</v>
       </c>
@@ -3891,8 +4485,26 @@
       <c r="M34" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="N34" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:153">
       <c r="A35" s="1" t="s">
         <v>263</v>
       </c>
@@ -3932,8 +4544,26 @@
       <c r="M35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="N35" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:153">
       <c r="A36" s="1" t="s">
         <v>270</v>
       </c>
@@ -3973,8 +4603,26 @@
       <c r="M36" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="N36" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:153">
       <c r="A37" s="1" t="s">
         <v>277</v>
       </c>
@@ -4014,8 +4662,26 @@
       <c r="M37" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="N37" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:153">
       <c r="A38" s="1" t="s">
         <v>284</v>
       </c>
@@ -4055,8 +4721,26 @@
       <c r="M38" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="N38" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:153">
       <c r="A39" s="1" t="s">
         <v>291</v>
       </c>
@@ -4096,8 +4780,26 @@
       <c r="M39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="N39" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:153">
       <c r="A40" s="1" t="s">
         <v>298</v>
       </c>
@@ -4137,8 +4839,26 @@
       <c r="M40" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="N40" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:153">
       <c r="A41" s="1" t="s">
         <v>304</v>
       </c>
@@ -4178,8 +4898,26 @@
       <c r="M41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="N41" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:153">
       <c r="A42" s="1" t="s">
         <v>311</v>
       </c>
@@ -4219,8 +4957,26 @@
       <c r="M42" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="N42" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:153">
       <c r="A43" s="1" t="s">
         <v>318</v>
       </c>
@@ -4260,8 +5016,26 @@
       <c r="M43" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="N43" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:153">
       <c r="A44" s="1" t="s">
         <v>324</v>
       </c>
@@ -4301,8 +5075,26 @@
       <c r="M44" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="N44" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:153">
       <c r="A45" s="1" t="s">
         <v>331</v>
       </c>
@@ -4342,8 +5134,26 @@
       <c r="M45" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="N45" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:153">
       <c r="A46" s="1" t="s">
         <v>338</v>
       </c>
@@ -4383,8 +5193,26 @@
       <c r="M46" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="N46" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:153">
       <c r="A47" s="1" t="s">
         <v>345</v>
       </c>
@@ -4424,8 +5252,26 @@
       <c r="M47" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="N47" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:153">
       <c r="A48" s="1" t="s">
         <v>351</v>
       </c>
@@ -4465,8 +5311,26 @@
       <c r="M48" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="N48" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:153">
       <c r="A49" s="1" t="s">
         <v>357</v>
       </c>
@@ -4506,8 +5370,26 @@
       <c r="M49" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="N49" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:153">
       <c r="A50" s="1" t="s">
         <v>363</v>
       </c>
@@ -4547,8 +5429,26 @@
       <c r="M50" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="N50" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:153">
       <c r="A51" s="1" t="s">
         <v>369</v>
       </c>
@@ -4588,8 +5488,26 @@
       <c r="M51" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="N51" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:153">
       <c r="A52" s="1" t="s">
         <v>376</v>
       </c>
@@ -4629,8 +5547,26 @@
       <c r="M52" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="N52" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:153">
       <c r="A53" s="1" t="s">
         <v>383</v>
       </c>
@@ -4670,8 +5606,26 @@
       <c r="M53" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="N53" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:153">
       <c r="A54" s="1" t="s">
         <v>390</v>
       </c>
@@ -4711,8 +5665,26 @@
       <c r="M54" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="N54" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:153">
       <c r="A55" s="1" t="s">
         <v>397</v>
       </c>
@@ -4752,8 +5724,26 @@
       <c r="M55" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="N55" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:153">
       <c r="A56" s="1" t="s">
         <v>403</v>
       </c>
@@ -4793,8 +5783,26 @@
       <c r="M56" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="N56" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:153">
       <c r="A57" s="1" t="s">
         <v>410</v>
       </c>
@@ -4834,8 +5842,26 @@
       <c r="M57" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="N57" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:153">
       <c r="A58" s="1" t="s">
         <v>417</v>
       </c>
@@ -4875,8 +5901,26 @@
       <c r="M58" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="N58" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:153">
       <c r="A59" s="1" t="s">
         <v>423</v>
       </c>
@@ -4916,8 +5960,26 @@
       <c r="M59" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="N59" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:153">
       <c r="A60" s="1" t="s">
         <v>430</v>
       </c>
@@ -4957,8 +6019,26 @@
       <c r="M60" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="N60" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:153">
       <c r="A61" s="1" t="s">
         <v>437</v>
       </c>
@@ -4998,8 +6078,26 @@
       <c r="M61" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="N61" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:153">
       <c r="A62" s="1" t="s">
         <v>444</v>
       </c>
@@ -5039,8 +6137,26 @@
       <c r="M62" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="N62" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:153">
       <c r="A63" s="1" t="s">
         <v>450</v>
       </c>
@@ -5080,8 +6196,26 @@
       <c r="M63" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="N63" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:153">
       <c r="A64" s="1" t="s">
         <v>457</v>
       </c>
@@ -5121,8 +6255,26 @@
       <c r="M64" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="N64" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:153">
       <c r="A65" s="1" t="s">
         <v>463</v>
       </c>
@@ -5162,8 +6314,26 @@
       <c r="M65" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="N65" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:153">
       <c r="A66" s="1" t="s">
         <v>469</v>
       </c>
@@ -5203,8 +6373,26 @@
       <c r="M66" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="N66" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:153">
       <c r="A67" s="1" t="s">
         <v>476</v>
       </c>
@@ -5244,8 +6432,26 @@
       <c r="M67" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="N67" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:153">
       <c r="A68" s="1" t="s">
         <v>482</v>
       </c>
@@ -5285,8 +6491,26 @@
       <c r="M68" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="N68" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:153">
       <c r="A69" s="1" t="s">
         <v>489</v>
       </c>
@@ -5326,8 +6550,26 @@
       <c r="M69" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="N69" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:153">
       <c r="A70" s="1" t="s">
         <v>495</v>
       </c>
@@ -5367,8 +6609,26 @@
       <c r="M70" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="N70" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:153">
       <c r="A71" s="1" t="s">
         <v>502</v>
       </c>
@@ -5408,8 +6668,26 @@
       <c r="M71" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="N71" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:153">
       <c r="A72" s="1" t="s">
         <v>509</v>
       </c>
@@ -5449,8 +6727,26 @@
       <c r="M72" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="N72" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="73" spans="1:153">
       <c r="A73" s="1" t="s">
         <v>516</v>
       </c>
@@ -5490,8 +6786,26 @@
       <c r="M73" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="N73" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:153">
       <c r="A74" s="1" t="s">
         <v>523</v>
       </c>
@@ -5531,8 +6845,26 @@
       <c r="M74" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="N74" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:153">
       <c r="A75" s="1" t="s">
         <v>529</v>
       </c>
@@ -5572,8 +6904,26 @@
       <c r="M75" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="N75" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="76" spans="1:153">
       <c r="A76" s="1" t="s">
         <v>535</v>
       </c>
@@ -5613,8 +6963,26 @@
       <c r="M76" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="N76" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:153">
       <c r="A77" s="1" t="s">
         <v>541</v>
       </c>
@@ -5654,8 +7022,26 @@
       <c r="M77" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="N77" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:153">
       <c r="A78" s="1" t="s">
         <v>547</v>
       </c>
@@ -5695,8 +7081,26 @@
       <c r="M78" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="N78" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:153">
       <c r="A79" s="1" t="s">
         <v>554</v>
       </c>
@@ -5736,8 +7140,26 @@
       <c r="M79" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="N79" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:153">
       <c r="A80" s="1" t="s">
         <v>561</v>
       </c>
@@ -5777,8 +7199,26 @@
       <c r="M80" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="N80" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:153">
       <c r="A81" s="1" t="s">
         <v>567</v>
       </c>
@@ -5818,8 +7258,26 @@
       <c r="M81" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="N81" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:153">
       <c r="A82" s="1" t="s">
         <v>574</v>
       </c>
@@ -5859,8 +7317,26 @@
       <c r="M82" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="N82" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="83" spans="1:153">
       <c r="A83" s="1" t="s">
         <v>580</v>
       </c>
@@ -5900,8 +7376,26 @@
       <c r="M83" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="N83" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:153">
       <c r="A84" s="1" t="s">
         <v>586</v>
       </c>
@@ -5941,8 +7435,26 @@
       <c r="M84" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="N84" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:153">
       <c r="A85" s="1" t="s">
         <v>593</v>
       </c>
@@ -5982,8 +7494,26 @@
       <c r="M85" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="N85" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:153">
       <c r="A86" s="1" t="s">
         <v>599</v>
       </c>
@@ -6023,8 +7553,26 @@
       <c r="M86" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="N86" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:153">
       <c r="A87" s="1" t="s">
         <v>605</v>
       </c>
@@ -6064,8 +7612,26 @@
       <c r="M87" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="N87" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:153">
       <c r="A88" s="1" t="s">
         <v>612</v>
       </c>
@@ -6105,8 +7671,26 @@
       <c r="M88" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="N88" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:153">
       <c r="A89" s="1" t="s">
         <v>619</v>
       </c>
@@ -6146,8 +7730,26 @@
       <c r="M89" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="N89" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:153">
       <c r="A90" s="1" t="s">
         <v>625</v>
       </c>
@@ -6187,8 +7789,26 @@
       <c r="M90" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="N90" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:153">
       <c r="A91" s="1" t="s">
         <v>632</v>
       </c>
@@ -6228,8 +7848,26 @@
       <c r="M91" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="N91" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:153">
       <c r="A92" s="1" t="s">
         <v>638</v>
       </c>
@@ -6269,8 +7907,26 @@
       <c r="M92" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="N92" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:153">
       <c r="A93" s="1" t="s">
         <v>645</v>
       </c>
@@ -6310,8 +7966,26 @@
       <c r="M93" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="N93" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94" spans="1:153">
       <c r="A94" s="1" t="s">
         <v>652</v>
       </c>
@@ -6351,8 +8025,26 @@
       <c r="M94" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="N94" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:153">
       <c r="A95" s="1" t="s">
         <v>658</v>
       </c>
@@ -6392,8 +8084,26 @@
       <c r="M95" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="N95" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:153">
       <c r="A96" s="1" t="s">
         <v>664</v>
       </c>
@@ -6433,8 +8143,26 @@
       <c r="M96" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="N96" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:153">
       <c r="A97" s="1" t="s">
         <v>671</v>
       </c>
@@ -6474,8 +8202,26 @@
       <c r="M97" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="N97" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:153">
       <c r="A98" s="1" t="s">
         <v>677</v>
       </c>
@@ -6515,8 +8261,26 @@
       <c r="M98" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="N98" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:153">
       <c r="A99" s="1" t="s">
         <v>683</v>
       </c>
@@ -6556,8 +8320,26 @@
       <c r="M99" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="N99" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:153">
       <c r="A100" s="1" t="s">
         <v>689</v>
       </c>
@@ -6597,8 +8379,26 @@
       <c r="M100" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="N100" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:153">
       <c r="A101" s="1" t="s">
         <v>695</v>
       </c>
@@ -6637,6 +8437,24 @@
       </c>
       <c r="M101" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/input2/CSV出力ツール用INPUT2.xlsx
+++ b/input2/CSV出力ツール用INPUT2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{25C30A39-EEB4-4C0F-99D9-93B769439D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F33AB25-85BA-4B79-832B-584F02EC8169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="3220" windowWidth="19390" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力_結果" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="709">
   <si>
     <t>202288880000000001</t>
   </si>
@@ -2493,7 +2493,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2585,9 +2587,6 @@
       <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2614,9 +2613,6 @@
       </c>
       <c r="R2" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:153">
